--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Temp/Temp2.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Temp/Temp2.xlsx
@@ -407,7 +407,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plana</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -417,32 +417,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Pirotubular</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pirotubular SA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Semiesferica</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Semicilindria</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Semiesferica</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Semicilindria</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Pirotubular cuadrada</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -466,31 +466,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
         <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Temp/Temp2.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Temp/Temp2.xlsx
@@ -407,19 +407,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Plana</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Plana SA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Plana SA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Pirotubular</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Pirotubular SA</t>
@@ -432,7 +432,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Semicilindria</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -452,12 +452,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cuadrada acanalada</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Cuadrada acanalada SA</t>
         </is>
       </c>
     </row>
@@ -466,13 +466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -481,22 +481,22 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
